--- a/data/pca/factorExposure/factorExposure_2013-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001336885784581517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001830025003163671</v>
+      </c>
+      <c r="C2">
+        <v>-0.03208159075564782</v>
+      </c>
+      <c r="D2">
+        <v>-0.005399764330210757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005847590036590508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006318236830506087</v>
+      </c>
+      <c r="C4">
+        <v>-0.08487268915283221</v>
+      </c>
+      <c r="D4">
+        <v>-0.07888925522556642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0001130871054761903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.0141527383452417</v>
+      </c>
+      <c r="C6">
+        <v>-0.1139175107777615</v>
+      </c>
+      <c r="D6">
+        <v>-0.03253043367577821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001559133699809611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005037566351913105</v>
+      </c>
+      <c r="C7">
+        <v>-0.05771380684421098</v>
+      </c>
+      <c r="D7">
+        <v>-0.03616704072590217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008351484577978111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005848635827694641</v>
+      </c>
+      <c r="C8">
+        <v>-0.03833705096225365</v>
+      </c>
+      <c r="D8">
+        <v>-0.046020989021314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003331247004198954</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004458442337804177</v>
+      </c>
+      <c r="C9">
+        <v>-0.0709111147356165</v>
+      </c>
+      <c r="D9">
+        <v>-0.07134044942307338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002570457355732443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005497374289101569</v>
+      </c>
+      <c r="C10">
+        <v>-0.05727583111314907</v>
+      </c>
+      <c r="D10">
+        <v>0.1973131561142213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002572484245549345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005813329428690867</v>
+      </c>
+      <c r="C11">
+        <v>-0.08076214816410456</v>
+      </c>
+      <c r="D11">
+        <v>-0.06071004490411543</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.000465220456274776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00409869180183522</v>
+      </c>
+      <c r="C12">
+        <v>-0.06422225003759034</v>
+      </c>
+      <c r="D12">
+        <v>-0.04759970974007446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002657147475649792</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008701022797216027</v>
+      </c>
+      <c r="C13">
+        <v>-0.06602392372983611</v>
+      </c>
+      <c r="D13">
+        <v>-0.06316537980043417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009866359292070241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001599108469835104</v>
+      </c>
+      <c r="C14">
+        <v>-0.04642876912135976</v>
+      </c>
+      <c r="D14">
+        <v>-0.006632085257693133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007248067994188964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006079105884384586</v>
+      </c>
+      <c r="C15">
+        <v>-0.04296171408642243</v>
+      </c>
+      <c r="D15">
+        <v>-0.02758503041457413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009163294560197928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005106490579184561</v>
+      </c>
+      <c r="C16">
+        <v>-0.06576098504022013</v>
+      </c>
+      <c r="D16">
+        <v>-0.04688083501956844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0003273834081362392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008887160541691174</v>
+      </c>
+      <c r="C20">
+        <v>-0.06574243745008616</v>
+      </c>
+      <c r="D20">
+        <v>-0.04376234365535069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005475431768295672</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01003642884337791</v>
+      </c>
+      <c r="C21">
+        <v>-0.02189460419072118</v>
+      </c>
+      <c r="D21">
+        <v>-0.03695302296237011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01699339795202554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006696541939825575</v>
+      </c>
+      <c r="C22">
+        <v>-0.09495069805565742</v>
+      </c>
+      <c r="D22">
+        <v>-0.1071560892770244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01729555275936656</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006514805410914809</v>
+      </c>
+      <c r="C23">
+        <v>-0.09574514335020887</v>
+      </c>
+      <c r="D23">
+        <v>-0.1072520305975116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001290585410555216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005478592905679524</v>
+      </c>
+      <c r="C24">
+        <v>-0.07636228940484911</v>
+      </c>
+      <c r="D24">
+        <v>-0.0611668813149164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003878295353607152</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.0030375192937638</v>
+      </c>
+      <c r="C25">
+        <v>-0.07824736320749237</v>
+      </c>
+      <c r="D25">
+        <v>-0.06648596417347087</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004769873557303037</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003678542568794132</v>
+      </c>
+      <c r="C26">
+        <v>-0.04191391685304031</v>
+      </c>
+      <c r="D26">
+        <v>-0.02174087459862506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005966188461996241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009097362653819812</v>
+      </c>
+      <c r="C28">
+        <v>-0.1058795477978054</v>
+      </c>
+      <c r="D28">
+        <v>0.3155038505801793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001160191556694273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003217011228514387</v>
+      </c>
+      <c r="C29">
+        <v>-0.04957204702820096</v>
+      </c>
+      <c r="D29">
+        <v>-0.004604924297572058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003377919797167514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009552952183350456</v>
+      </c>
+      <c r="C30">
+        <v>-0.1428384047655137</v>
+      </c>
+      <c r="D30">
+        <v>-0.09286480937320202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001116626450172265</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006257495257815095</v>
+      </c>
+      <c r="C31">
+        <v>-0.04512990108289672</v>
+      </c>
+      <c r="D31">
+        <v>-0.03016245005528623</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0009505305471006676</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004132226034231658</v>
+      </c>
+      <c r="C32">
+        <v>-0.04145489223413851</v>
+      </c>
+      <c r="D32">
+        <v>-0.01836763014040871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002382911765393045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008350658875557665</v>
+      </c>
+      <c r="C33">
+        <v>-0.08615227439132216</v>
+      </c>
+      <c r="D33">
+        <v>-0.06826195619620343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004250013853189481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004000124032683653</v>
+      </c>
+      <c r="C34">
+        <v>-0.05800909331769218</v>
+      </c>
+      <c r="D34">
+        <v>-0.05340095691426722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001580060125196792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00504460842107127</v>
+      </c>
+      <c r="C35">
+        <v>-0.04000292067149822</v>
+      </c>
+      <c r="D35">
+        <v>-0.01737903286356177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00413902180559945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001156134277665392</v>
+      </c>
+      <c r="C36">
+        <v>-0.0247952283952287</v>
+      </c>
+      <c r="D36">
+        <v>-0.02216848572145888</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002325043352783079</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009557744747476985</v>
+      </c>
+      <c r="C38">
+        <v>-0.0353700080199278</v>
+      </c>
+      <c r="D38">
+        <v>-0.0154625297884811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01169539247148979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0005052870416022044</v>
+      </c>
+      <c r="C39">
+        <v>-0.116662859040646</v>
+      </c>
+      <c r="D39">
+        <v>-0.07121051952657945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009460375982702706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002573228325016556</v>
+      </c>
+      <c r="C40">
+        <v>-0.08824401754550106</v>
+      </c>
+      <c r="D40">
+        <v>-0.01764317129723811</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.00010295760641591</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007317661367210878</v>
+      </c>
+      <c r="C41">
+        <v>-0.03758289662275054</v>
+      </c>
+      <c r="D41">
+        <v>-0.03504107203366815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002882055210243445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003970752278067262</v>
+      </c>
+      <c r="C43">
+        <v>-0.05319360883676429</v>
+      </c>
+      <c r="D43">
+        <v>-0.02323843772847617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00400454978039705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003405146871382668</v>
+      </c>
+      <c r="C44">
+        <v>-0.109902482228231</v>
+      </c>
+      <c r="D44">
+        <v>-0.06912547777371737</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009409647818023577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002305463088243643</v>
+      </c>
+      <c r="C46">
+        <v>-0.03367608453331936</v>
+      </c>
+      <c r="D46">
+        <v>-0.03348525510425646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003274514361343667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002678535452621483</v>
+      </c>
+      <c r="C47">
+        <v>-0.03723463886640912</v>
+      </c>
+      <c r="D47">
+        <v>-0.02253390895972606</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003688607270509028</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006606935634452326</v>
+      </c>
+      <c r="C48">
+        <v>-0.03021414382455263</v>
+      </c>
+      <c r="D48">
+        <v>-0.03206577169471141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01185765759929316</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01531007803410576</v>
+      </c>
+      <c r="C49">
+        <v>-0.1828958630695098</v>
+      </c>
+      <c r="D49">
+        <v>-0.01223592331740374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001561604705613785</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003634461899977528</v>
+      </c>
+      <c r="C50">
+        <v>-0.04414671106945237</v>
+      </c>
+      <c r="D50">
+        <v>-0.03367716645650203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007525888546863141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004482684813405989</v>
+      </c>
+      <c r="C51">
+        <v>-0.02689011169060468</v>
+      </c>
+      <c r="D51">
+        <v>-0.0183966189722814</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007590624005769414</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02091968701585975</v>
+      </c>
+      <c r="C53">
+        <v>-0.168799710797879</v>
+      </c>
+      <c r="D53">
+        <v>-0.02942730925979115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001471703397151527</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008725393020675154</v>
+      </c>
+      <c r="C54">
+        <v>-0.05542253180123179</v>
+      </c>
+      <c r="D54">
+        <v>-0.04263260847983794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003852013665367592</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009527084893218025</v>
+      </c>
+      <c r="C55">
+        <v>-0.1082926699334303</v>
+      </c>
+      <c r="D55">
+        <v>-0.0405072342068775</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003103380214106767</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02014508342261431</v>
+      </c>
+      <c r="C56">
+        <v>-0.1743122071872629</v>
+      </c>
+      <c r="D56">
+        <v>-0.02977462742908672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006953689375109009</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01976057266724526</v>
+      </c>
+      <c r="C58">
+        <v>-0.1109182956454513</v>
+      </c>
+      <c r="D58">
+        <v>-0.05256040000267303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006934843406005486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009817426043897766</v>
+      </c>
+      <c r="C59">
+        <v>-0.161054142597933</v>
+      </c>
+      <c r="D59">
+        <v>0.3148999277529773</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003659886098608732</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02379554464362638</v>
+      </c>
+      <c r="C60">
+        <v>-0.2207702604154327</v>
+      </c>
+      <c r="D60">
+        <v>-0.0328249211563227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01348001650530558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001628248213878084</v>
+      </c>
+      <c r="C61">
+        <v>-0.09601128793634256</v>
+      </c>
+      <c r="D61">
+        <v>-0.05763871147801557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1640204377110965</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448095522144803</v>
+      </c>
+      <c r="C62">
+        <v>-0.09179276371513302</v>
+      </c>
+      <c r="D62">
+        <v>-0.04652898893460157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000903907880766112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006242064561844073</v>
+      </c>
+      <c r="C63">
+        <v>-0.05540594452999428</v>
+      </c>
+      <c r="D63">
+        <v>-0.02345148880949374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0002574753579276716</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01543371849640189</v>
+      </c>
+      <c r="C64">
+        <v>-0.1057756383598302</v>
+      </c>
+      <c r="D64">
+        <v>-0.06033199307574064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002669135814293833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01794815275131773</v>
+      </c>
+      <c r="C65">
+        <v>-0.1232836488710032</v>
+      </c>
+      <c r="D65">
+        <v>-0.01771717295277341</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007650241912814529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01324361681889913</v>
+      </c>
+      <c r="C66">
+        <v>-0.1606668323805864</v>
+      </c>
+      <c r="D66">
+        <v>-0.1142847023365031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003706872450811254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01573498410089458</v>
+      </c>
+      <c r="C67">
+        <v>-0.06621167543018651</v>
+      </c>
+      <c r="D67">
+        <v>-0.02516982179322695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006592492965810643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0006272028910758053</v>
+      </c>
+      <c r="C68">
+        <v>-0.08586427876548212</v>
+      </c>
+      <c r="D68">
+        <v>0.256273570986875</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002147145041832708</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00616422525258609</v>
+      </c>
+      <c r="C69">
+        <v>-0.05063082707237174</v>
+      </c>
+      <c r="D69">
+        <v>-0.03750220261781832</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>9.874463802543244e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001881347904139441</v>
+      </c>
+      <c r="C70">
+        <v>-0.003043077483816366</v>
+      </c>
+      <c r="D70">
+        <v>-0.002627222850775039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0006793111564080175</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005905864134745137</v>
+      </c>
+      <c r="C71">
+        <v>-0.09631503447320328</v>
+      </c>
+      <c r="D71">
+        <v>0.306558852891428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003511413801698845</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01609208409245402</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529022889272545</v>
+      </c>
+      <c r="D72">
+        <v>-0.02136718700249319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01121942494087473</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03068604773700353</v>
+      </c>
+      <c r="C73">
+        <v>-0.2793089833975149</v>
+      </c>
+      <c r="D73">
+        <v>-0.04923762795121677</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00442146746318829</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.00196105290737874</v>
+      </c>
+      <c r="C74">
+        <v>-0.1048961653192808</v>
+      </c>
+      <c r="D74">
+        <v>-0.0358323431138098</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002551882820879579</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0109619027547399</v>
+      </c>
+      <c r="C75">
+        <v>-0.125498423399937</v>
+      </c>
+      <c r="D75">
+        <v>-0.02230782881891594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009577925264298248</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02181686293682581</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489518550561432</v>
+      </c>
+      <c r="D76">
+        <v>-0.0599002583209907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008243458879798565</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02393653458036634</v>
+      </c>
+      <c r="C77">
+        <v>-0.1291462918656112</v>
+      </c>
+      <c r="D77">
+        <v>-0.08570699759172379</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.00048187910008999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.0147549017691432</v>
+      </c>
+      <c r="C78">
+        <v>-0.09568736727190905</v>
+      </c>
+      <c r="D78">
+        <v>-0.07040380144210712</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02258574493930044</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03767828591605855</v>
+      </c>
+      <c r="C79">
+        <v>-0.1548786509855951</v>
+      </c>
+      <c r="D79">
+        <v>-0.03472928906000763</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006487417228564328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048634341979729</v>
+      </c>
+      <c r="C80">
+        <v>-0.04119967411704865</v>
+      </c>
+      <c r="D80">
+        <v>-0.0294155218843666</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001437471248007673</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0154759081198922</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272705575841092</v>
+      </c>
+      <c r="D81">
+        <v>-0.03951986961978126</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005459005183152873</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01983024508539105</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410947917785867</v>
+      </c>
+      <c r="D82">
+        <v>-0.04209901456230407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008060970264135362</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010201809587959</v>
+      </c>
+      <c r="C83">
+        <v>-0.05708726126726836</v>
+      </c>
+      <c r="D83">
+        <v>-0.05742944643062903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.013360754588833</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169393827318534</v>
+      </c>
+      <c r="C84">
+        <v>-0.03663379882442312</v>
+      </c>
+      <c r="D84">
+        <v>0.01106744341247597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01362974891372834</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02818435864844864</v>
+      </c>
+      <c r="C85">
+        <v>-0.1243372803882192</v>
+      </c>
+      <c r="D85">
+        <v>-0.04363142575688068</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001572511856855992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.006055938081511269</v>
+      </c>
+      <c r="C86">
+        <v>-0.05072729078515771</v>
+      </c>
+      <c r="D86">
+        <v>-0.02127893645822298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00357135385283651</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.0102314022396237</v>
+      </c>
+      <c r="C87">
+        <v>-0.1306307965145456</v>
+      </c>
+      <c r="D87">
+        <v>-0.07131694032841697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01187353790690197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002779490458698959</v>
+      </c>
+      <c r="C88">
+        <v>-0.06703067880127279</v>
+      </c>
+      <c r="D88">
+        <v>-0.01342069823478664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01405445443102722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001265712395928774</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466916529805017</v>
+      </c>
+      <c r="D89">
+        <v>0.3427336746520387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002519119664118403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007043796887851494</v>
+      </c>
+      <c r="C90">
+        <v>-0.1215475873915672</v>
+      </c>
+      <c r="D90">
+        <v>0.3232641501115386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0007211678605323561</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01053054043157474</v>
+      </c>
+      <c r="C91">
+        <v>-0.1023096729027633</v>
+      </c>
+      <c r="D91">
+        <v>-0.01995632211062736</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007921988193150384</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0009781738751977877</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358901774237885</v>
+      </c>
+      <c r="D92">
+        <v>0.3291729921923844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0004468595220714271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004881319377254605</v>
+      </c>
+      <c r="C93">
+        <v>-0.1041022399994213</v>
+      </c>
+      <c r="D93">
+        <v>0.3059882293019126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003282339635240556</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.0226103833879695</v>
+      </c>
+      <c r="C94">
+        <v>-0.147529644925598</v>
+      </c>
+      <c r="D94">
+        <v>-0.04962741193207743</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004244799420988133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01654316904808965</v>
+      </c>
+      <c r="C95">
+        <v>-0.1276019388321897</v>
+      </c>
+      <c r="D95">
+        <v>-0.05704037702263547</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>7.346843154263567e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03594393687842967</v>
+      </c>
+      <c r="C97">
+        <v>-0.2111903175319539</v>
+      </c>
+      <c r="D97">
+        <v>0.01198397933681132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003069262536661455</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03671606391991255</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493726548787274</v>
+      </c>
+      <c r="D98">
+        <v>-0.04756106606722744</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847394461834514</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9821749672498132</v>
+      </c>
+      <c r="C99">
+        <v>0.1166120928690257</v>
+      </c>
+      <c r="D99">
+        <v>0.02737493988695356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001064832442960074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003253724795407926</v>
+      </c>
+      <c r="C101">
+        <v>-0.04975799942287193</v>
+      </c>
+      <c r="D101">
+        <v>-0.004714538756989856</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
